--- a/lesions.xlsx
+++ b/lesions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="26940" windowHeight="12915"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="26940" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>'Naty388'</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Naty341'</t>
+  </si>
+  <si>
+    <t>TryskoMys</t>
+  </si>
+  <si>
+    <t>Naty338</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +521,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4">
         <v>283</v>
       </c>
@@ -598,6 +607,9 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>338</v>

--- a/lesions.xlsx
+++ b/lesions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="26940" windowHeight="12915"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="26940" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>FR</t>
   </si>
   <si>
-    <t>SkullFluoro</t>
-  </si>
-  <si>
     <t>PremekMysFinal</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Naty338</t>
+  </si>
+  <si>
+    <t>SkullFluoro_mm2</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>339</v>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>419</v>
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>283</v>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>343</v>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>413</v>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>338</v>
@@ -638,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>341</v>

--- a/lesions.xlsx
+++ b/lesions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="26940" windowHeight="12915"/>
+    <workbookView xWindow="8940" yWindow="0" windowWidth="26940" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>'Naty388'</t>
   </si>
@@ -88,13 +88,31 @@
   </si>
   <si>
     <t>SkullFluoro_mm2</t>
+  </si>
+  <si>
+    <t>eeg_lbl_path</t>
+  </si>
+  <si>
+    <t>\\neurodata\Lab Neurophysiology root\EEG conversion\NatySST_TdTET339</t>
+  </si>
+  <si>
+    <t>\\neurodata\Lab Neurophysiology root\EEG conversion\NatymTORET283</t>
+  </si>
+  <si>
+    <t>\\neurodata\Lab Neurophysiology root\EEG Naty\mTOR MUT\Naty SST_TdT ET 343</t>
+  </si>
+  <si>
+    <t>\\neurodata\Lab Neurophysiology root\EEG Naty\mTOR MUT\Naty SST_TdT ET 413</t>
+  </si>
+  <si>
+    <t>have_seizure_lbl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +124,15 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -129,16 +156,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +458,11 @@
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -458,8 +490,14 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,8 +525,14 @@
       <c r="I2" s="1">
         <v>117.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,8 +560,11 @@
       <c r="I3" s="1">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,8 +592,14 @@
       <c r="I4" s="1">
         <v>197.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -574,8 +627,14 @@
       <c r="I5" s="1">
         <v>74.787000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -603,8 +662,14 @@
       <c r="I6" s="1">
         <v>5.1459999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -632,8 +697,11 @@
       <c r="I7" s="1">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -661,8 +729,11 @@
       <c r="I8" s="1">
         <v>19.157</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -688,8 +759,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -714,8 +788,11 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -740,8 +817,11 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -766,8 +846,11 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -792,10 +875,19 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K5" r:id="rId3"/>
+    <hyperlink ref="K6" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/lesions.xlsx
+++ b/lesions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="0" windowWidth="26940" windowHeight="12915"/>
+    <workbookView xWindow="10725" yWindow="0" windowWidth="5070" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>'Naty388'</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>have_seizure_lbl</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>% independent</t>
   </si>
 </sst>
 </file>
@@ -139,12 +145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,12 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -447,17 +460,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="32.28515625" customWidth="1"/>
   </cols>
@@ -876,6 +890,78 @@
         <v>1</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="5">
+        <v>55.8</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="5">
+        <v>44.4</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
     </row>

--- a/lesions.xlsx
+++ b/lesions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="0" windowWidth="5070" windowHeight="11640"/>
+    <workbookView xWindow="12435" yWindow="0" windowWidth="5070" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>'Naty388'</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>% independent</t>
+  </si>
+  <si>
+    <t>FluoroVolume</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,11 +475,12 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -505,13 +509,16 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,14 +546,17 @@
       <c r="I2" s="1">
         <v>117.6</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -574,11 +584,14 @@
       <c r="I3" s="1">
         <v>3.63</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -606,14 +619,17 @@
       <c r="I4" s="1">
         <v>197.4</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -641,14 +657,17 @@
       <c r="I5" s="1">
         <v>74.787000000000006</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -676,14 +695,17 @@
       <c r="I6" s="1">
         <v>5.1459999999999999</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -711,11 +733,14 @@
       <c r="I7" s="1">
         <v>25.8</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -743,11 +768,14 @@
       <c r="I8" s="1">
         <v>19.157</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -773,11 +801,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -802,11 +833,14 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -831,11 +865,11 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -860,11 +894,14 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -889,88 +926,95 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>28</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25" s="5">
         <v>12.7</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>27</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28" s="5">
         <v>55.8</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29" s="5">
         <v>44.4</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>27</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>27</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="K5" r:id="rId3"/>
-    <hyperlink ref="K6" r:id="rId4"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId2"/>
+    <hyperlink ref="L5" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
